--- a/leanCrm/datanew/physicalAreas/Predio/relations/PredioR5PhysicalSpaces.xlsx
+++ b/leanCrm/datanew/physicalAreas/Predio/relations/PredioR5PhysicalSpaces.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="50">
   <si>
     <t>From</t>
   </si>
@@ -57,133 +57,118 @@
     <t>Uno a Muchos Bidirecccional No.5</t>
   </si>
   <si>
+    <t>nomenclatura</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>LOCAL No.1</t>
+  </si>
+  <si>
+    <t>LOCAL No.2</t>
+  </si>
+  <si>
+    <t>LOCAL No.3</t>
+  </si>
+  <si>
+    <t>LOCAL No.4</t>
+  </si>
+  <si>
+    <t>LOCAL No.5</t>
+  </si>
+  <si>
+    <t>APTO 201</t>
+  </si>
+  <si>
+    <t>APTO 202</t>
+  </si>
+  <si>
+    <t>Local L1</t>
+  </si>
+  <si>
+    <t>Baño L1</t>
+  </si>
+  <si>
+    <t>Cocina L1</t>
+  </si>
+  <si>
+    <t>Local L2</t>
+  </si>
+  <si>
+    <t>Rincon L2</t>
+  </si>
+  <si>
+    <t>Baño L2</t>
+  </si>
+  <si>
+    <t>Local L3</t>
+  </si>
+  <si>
+    <t>Rincon  L3</t>
+  </si>
+  <si>
+    <t>Baño  L3</t>
+  </si>
+  <si>
+    <t>Local  L4</t>
+  </si>
+  <si>
+    <t>Cocina  L4</t>
+  </si>
+  <si>
+    <t>Alcoba  L4</t>
+  </si>
+  <si>
+    <t>Patio  L4</t>
+  </si>
+  <si>
+    <t>Baño  L4</t>
+  </si>
+  <si>
+    <t>Local  L5</t>
+  </si>
+  <si>
+    <t>Baño  L5</t>
+  </si>
+  <si>
+    <t>Sala Comedor A201</t>
+  </si>
+  <si>
+    <t>Cocina A201</t>
+  </si>
+  <si>
+    <t>Alcoba Principal A201</t>
+  </si>
+  <si>
+    <t>Alcoba Secundaria  A201</t>
+  </si>
+  <si>
+    <t>Baño A201</t>
+  </si>
+  <si>
+    <t>Sala Comedor A202</t>
+  </si>
+  <si>
+    <t>Baño A202</t>
+  </si>
+  <si>
+    <t>Cocina A202</t>
+  </si>
+  <si>
+    <t>Baño Cocina A202</t>
+  </si>
+  <si>
+    <t>Alcoba Principal A202</t>
+  </si>
+  <si>
+    <t>Alcoba Secundaria A202</t>
+  </si>
+  <si>
     <t>C 26 22 138</t>
   </si>
   <si>
-    <t>nomenclatura</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Fachada</t>
-  </si>
-  <si>
-    <t>Ingreso Escalera 1 Piso</t>
-  </si>
-  <si>
-    <t>Escalera 1 Piso</t>
-  </si>
-  <si>
-    <t>Pasillo 2 piso</t>
-  </si>
-  <si>
-    <t>placa 2 piso</t>
-  </si>
-  <si>
-    <t>placa 3 piso</t>
-  </si>
-  <si>
-    <t>LOCAL No.1</t>
-  </si>
-  <si>
-    <t>LOCAL No.2</t>
-  </si>
-  <si>
-    <t>LOCAL No.3</t>
-  </si>
-  <si>
-    <t>LOCAL No.4</t>
-  </si>
-  <si>
-    <t>LOCAL No.5</t>
-  </si>
-  <si>
-    <t>APTO 201</t>
-  </si>
-  <si>
-    <t>APTO 202</t>
-  </si>
-  <si>
-    <t>Local L1</t>
-  </si>
-  <si>
-    <t>Baño L1</t>
-  </si>
-  <si>
-    <t>Cocina L1</t>
-  </si>
-  <si>
-    <t>Local L2</t>
-  </si>
-  <si>
-    <t>Rincon L2</t>
-  </si>
-  <si>
-    <t>Baño L2</t>
-  </si>
-  <si>
-    <t>Local L3</t>
-  </si>
-  <si>
-    <t>Rincon  L3</t>
-  </si>
-  <si>
-    <t>Baño  L3</t>
-  </si>
-  <si>
-    <t>Local  L4</t>
-  </si>
-  <si>
-    <t>Cocina  L4</t>
-  </si>
-  <si>
-    <t>Alcoba  L4</t>
-  </si>
-  <si>
-    <t>Patio  L4</t>
-  </si>
-  <si>
-    <t>Baño  L4</t>
-  </si>
-  <si>
-    <t>Local  L5</t>
-  </si>
-  <si>
-    <t>Baño  L5</t>
-  </si>
-  <si>
-    <t>Sala Comedor A201</t>
-  </si>
-  <si>
-    <t>Cocina A201</t>
-  </si>
-  <si>
-    <t>Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Alcoba Secundaria  A201</t>
-  </si>
-  <si>
-    <t>Baño A201</t>
-  </si>
-  <si>
-    <t>Sala Comedor A202</t>
-  </si>
-  <si>
-    <t>Baño A202</t>
-  </si>
-  <si>
-    <t>Cocina A202</t>
-  </si>
-  <si>
-    <t>Baño Cocina A202</t>
-  </si>
-  <si>
-    <t>Alcoba Principal A202</t>
-  </si>
-  <si>
-    <t>Alcoba Secundaria A202</t>
+    <t>Area Común CL26</t>
   </si>
 </sst>
 </file>
@@ -997,14 +982,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
@@ -1042,19 +1029,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1068,19 +1055,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -1091,19 +1078,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -1114,19 +1101,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -1137,19 +1124,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -1160,19 +1147,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -1183,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -1206,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -1229,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -1252,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -1275,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -1298,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -1321,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -1344,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
@@ -1367,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
@@ -1390,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -1413,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -1436,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
@@ -1459,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
@@ -1482,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H21" t="s">
         <v>11</v>
@@ -1505,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -1528,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
         <v>11</v>
@@ -1551,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -1574,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -1597,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -1620,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -1643,19 +1630,19 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -1666,136 +1653,21 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" t="s">
         <v>11</v>
       </c>
     </row>

--- a/leanCrm/datanew/physicalAreas/Predio/relations/PredioR5PhysicalSpaces.xlsx
+++ b/leanCrm/datanew/physicalAreas/Predio/relations/PredioR5PhysicalSpaces.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="52">
   <si>
     <t>From</t>
   </si>
@@ -169,12 +169,18 @@
   </si>
   <si>
     <t>Area Común CL26</t>
+  </si>
+  <si>
+    <t>Balcon A201</t>
+  </si>
+  <si>
+    <t>Balcon A202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,7 +687,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -982,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,7 +1547,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -1549,8 +1555,8 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" t="s">
-        <v>42</v>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
@@ -1573,7 +1579,7 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -1596,7 +1602,7 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -1619,7 +1625,7 @@
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -1642,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -1665,9 +1671,55 @@
         <v>13</v>
       </c>
       <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="s">
         <v>11</v>
       </c>
     </row>

--- a/leanCrm/datanew/physicalAreas/Predio/relations/PredioR5PhysicalSpaces.xlsx
+++ b/leanCrm/datanew/physicalAreas/Predio/relations/PredioR5PhysicalSpaces.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="54">
   <si>
     <t>From</t>
   </si>
@@ -51,9 +51,6 @@
     <t>PhysicalSpaces</t>
   </si>
   <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
     <t>Uno a Muchos Bidirecccional No.5</t>
   </si>
   <si>
@@ -138,12 +135,6 @@
     <t>Cocina A201</t>
   </si>
   <si>
-    <t>Alcoba Principal A201</t>
-  </si>
-  <si>
-    <t>Alcoba Secundaria  A201</t>
-  </si>
-  <si>
     <t>Baño A201</t>
   </si>
   <si>
@@ -159,28 +150,43 @@
     <t>Baño Cocina A202</t>
   </si>
   <si>
-    <t>Alcoba Principal A202</t>
-  </si>
-  <si>
-    <t>Alcoba Secundaria A202</t>
-  </si>
-  <si>
     <t>C 26 22 138</t>
   </si>
   <si>
-    <t>Area Común CL26</t>
-  </si>
-  <si>
     <t>Balcon A201</t>
   </si>
   <si>
     <t>Balcon A202</t>
+  </si>
+  <si>
+    <t>Garaje L1</t>
+  </si>
+  <si>
+    <t>Area Común CR23</t>
+  </si>
+  <si>
+    <t>Pasillo A201</t>
+  </si>
+  <si>
+    <t>Alcoba1 A201</t>
+  </si>
+  <si>
+    <t>Alcoba2 A201</t>
+  </si>
+  <si>
+    <t>Pasillo A202</t>
+  </si>
+  <si>
+    <t>Alcoba1 A202</t>
+  </si>
+  <si>
+    <t>Alcoba2 A202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -687,7 +693,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -988,11 +994,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1035,25 +1039,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1061,22 +1062,22 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1084,22 +1085,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,22 +1108,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,22 +1131,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1153,22 +1154,22 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1176,22 +1177,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1199,22 +1200,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,22 +1223,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,22 +1246,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1268,22 +1269,22 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1291,22 +1292,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1314,22 +1315,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1337,22 +1338,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1360,22 +1361,22 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1383,22 +1384,22 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,22 +1407,22 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,22 +1430,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,22 +1453,22 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,22 +1476,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1498,22 +1499,22 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1521,22 +1522,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1544,22 +1545,22 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
         <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,22 +1568,22 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1590,22 +1591,22 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1613,22 +1614,22 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,22 +1637,22 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1659,22 +1660,22 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1682,22 +1683,22 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,22 +1706,91 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
